--- a/docs/debug-devenv-params.xlsx
+++ b/docs/debug-devenv-params.xlsx
@@ -424,23 +424,7 @@
     <t xml:space="preserve">  "background": "new BackgroundQueue(db)"</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;&lt;&lt; ### bsky.ts @ sub &lt;= bsky.RepoSubscription({service, db, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">idResolver, background}) with obj of ###</t>
-    </r>
+    <t xml:space="preserve">&lt;&lt;&lt; ### bsky.ts @ sub &lt;= bsky.RepoSubscription({service, db, idResolver, background}) with obj of ###</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;&gt;&gt; ### bsky.ts @ server and sub(RepoSubscription) starts ### &lt;&lt;&lt;</t>
@@ -518,23 +502,7 @@
     <t xml:space="preserve">  "inviteRequired": false,</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;&lt;&lt; ### pds.ts @ env &lt;= pds.ServerEnvironment(given, +additional), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">result(env): ###</t>
-    </r>
+    <t xml:space="preserve">&lt;&lt;&lt; ### pds.ts @ env &lt;= pds.ServerEnvironment(given, +additional), result(env): ###</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;&gt;&gt; ### pds.ts @ cfg &lt;= pds.envToCfg(env), result(cfg): ############################</t>
@@ -645,23 +613,7 @@
     <t xml:space="preserve">    "resolverTimeout": 3000,</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">    "recoveryDidKey": </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"did:key:zQ3shqeVK9MphWCzxK9hkZfcLrJhu77oAkHzpgEPQVnUtasXy",</t>
-    </r>
+    <t xml:space="preserve">    "recoveryDidKey": "did:key:zQ3shqeVK9MphWCzxK9hkZfcLrJhu77oAkHzpgEPQVnUtasXy",</t>
   </si>
   <si>
     <t xml:space="preserve">PDS_RECOVERY_DID_KEY</t>
@@ -856,23 +808,7 @@
     <t xml:space="preserve">  "publicUrl": "https://ozone.public.url",</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  "signingKeyHex": </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"700ce30b3aa6336d5053ec7e98c9d8ea4eeabc27ca68ba49e91cf9a926d9d88d",</t>
-    </r>
+    <t xml:space="preserve">  "signingKeyHex": "700ce30b3aa6336d5053ec7e98c9d8ea4eeabc27ca68ba49e91cf9a926d9d88d",</t>
   </si>
   <si>
     <t xml:space="preserve">  "pdsDid": "did:web:localhost",</t>
@@ -1005,7 +941,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK JP"/>
@@ -1064,11 +1000,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1131,7 +1062,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1172,20 +1103,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1268,7 +1187,7 @@
   <dimension ref="A1:C334"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B129" activeCellId="0" sqref="B129"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1767,7 +1686,7 @@
       <c r="A88" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1900,7 +1819,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="10" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1928,37 +1847,37 @@
       <c r="A113" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="10"/>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="10"/>
+      <c r="B114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="10"/>
+      <c r="B115" s="3"/>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="10"/>
+      <c r="B116" s="3"/>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="10"/>
+      <c r="B117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B118" s="10"/>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
@@ -2106,7 +2025,7 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="10" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2137,7 +2056,7 @@
       <c r="A153" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2145,7 +2064,7 @@
       <c r="A154" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B154" s="10"/>
+      <c r="B154" s="3"/>
       <c r="C154" s="3" t="s">
         <v>137</v>
       </c>
@@ -2154,7 +2073,7 @@
       <c r="A155" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2162,7 +2081,7 @@
       <c r="A156" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2170,7 +2089,7 @@
       <c r="A157" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2315,7 +2234,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="11" t="s">
+      <c r="A180" s="10" t="s">
         <v>170</v>
       </c>
       <c r="B180" s="3" t="s">
@@ -2699,8 +2618,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="248" s="13" customFormat="true" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="12" t="s">
+    <row r="248" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A248" s="7" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2713,49 +2632,49 @@
       <c r="A250" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B250" s="10"/>
+      <c r="B250" s="3"/>
     </row>
     <row r="251" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B251" s="10"/>
+      <c r="B251" s="3"/>
     </row>
     <row r="252" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B252" s="10"/>
+      <c r="B252" s="3"/>
     </row>
     <row r="253" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B253" s="10"/>
+      <c r="B253" s="3"/>
     </row>
     <row r="254" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B254" s="10"/>
+      <c r="B254" s="3"/>
     </row>
     <row r="255" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B255" s="10"/>
+      <c r="B255" s="3"/>
     </row>
     <row r="256" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="11" t="s">
+      <c r="A256" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B256" s="10"/>
+      <c r="B256" s="3"/>
     </row>
     <row r="257" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B257" s="10"/>
+      <c r="B257" s="3"/>
     </row>
     <row r="258" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
@@ -2791,55 +2710,55 @@
       <c r="A264" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B264" s="10"/>
+      <c r="B264" s="3"/>
     </row>
     <row r="265" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B265" s="10"/>
+      <c r="B265" s="3"/>
     </row>
     <row r="266" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B266" s="10"/>
+      <c r="B266" s="3"/>
     </row>
     <row r="267" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B267" s="10"/>
+      <c r="B267" s="3"/>
     </row>
     <row r="268" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B268" s="10"/>
+      <c r="B268" s="3"/>
     </row>
     <row r="269" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B269" s="10"/>
+      <c r="B269" s="3"/>
     </row>
     <row r="270" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B270" s="10"/>
+      <c r="B270" s="3"/>
     </row>
     <row r="271" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B271" s="10"/>
+      <c r="B271" s="3"/>
     </row>
     <row r="272" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B272" s="10"/>
+      <c r="B272" s="3"/>
     </row>
     <row r="273" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="7" t="s">
@@ -2855,7 +2774,7 @@
       <c r="A275" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B275" s="10"/>
+      <c r="B275" s="3"/>
     </row>
     <row r="276" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
@@ -2876,7 +2795,7 @@
       <c r="A279" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B279" s="10"/>
+      <c r="B279" s="3"/>
     </row>
     <row r="280" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
@@ -2962,7 +2881,7 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A293" s="11" t="s">
+      <c r="A293" s="10" t="s">
         <v>235</v>
       </c>
       <c r="B293" s="3" t="s">
